--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail9 Features.xlsx
@@ -2049,7 +2049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2060,29 +2060,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2103,115 +2101,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2228,72 +2216,66 @@
         <v>2.07912984297686e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.600857220699746</v>
+        <v>1.433423314496355e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.241882475006848</v>
+        <v>3.828639731499972e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.433423314496355e-06</v>
+        <v>0.1015338940920467</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.828639731499972e-06</v>
+        <v>0.3268367578054128</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1015338940920467</v>
+        <v>0.1168798367958636</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3268367578054128</v>
+        <v>1.494726549054027</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1168798367958636</v>
+        <v>1.754616143473866</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.396635705687992</v>
+        <v>3.336956923591584</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.754616143473866</v>
+        <v>7.468378578020016e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.336956923591584</v>
+        <v>33336334.99308186</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.468378578020016e-15</v>
+        <v>3.114904113997706e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>33336334.99308186</v>
+        <v>8.299692989403001</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.114904113997706e-06</v>
+        <v>0.0001516377676542836</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8.299692989403001</v>
+        <v>9.837076337087264</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001516377676542836</v>
+        <v>1.518042481608651</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.837076337087264</v>
+        <v>0.01467369424567702</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.518042481608651</v>
+        <v>2.770246454044846</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01467369424567702</v>
+        <v>0.9459509720353114</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.770246454044846</v>
+        <v>1.876290791559202</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9459509720353114</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.876290791559202</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2179999991040255</v>
       </c>
     </row>
@@ -2308,72 +2290,66 @@
         <v>1.621369078914754e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.822273757581826</v>
+        <v>1.074621278354077e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5.508183771716173</v>
+        <v>3.84650041025229e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.074621278354077e-06</v>
+        <v>0.09214816831963499</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.84650041025229e-06</v>
+        <v>0.319090361343226</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09214816831963499</v>
+        <v>0.1100752725173506</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.319090361343226</v>
+        <v>1.505332053357225</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1100752725173506</v>
+        <v>1.533708209897663</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.404742471149182</v>
+        <v>3.389516421362155</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.533708209897663</v>
+        <v>7.238557703864996e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.389516421362155</v>
+        <v>34237762.43153232</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.238557703864996e-15</v>
+        <v>3.04337716341912e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>34237762.43153232</v>
+        <v>8.485213789855333</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.04337716341912e-06</v>
+        <v>0.000150178490113711</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8.485213789855333</v>
+        <v>10.06717588562967</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000150178490113711</v>
+        <v>1.500319552323087</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.06717588562967</v>
+        <v>0.01522029416828534</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.500319552323087</v>
+        <v>2.816948110472894</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01522029416828534</v>
+        <v>0.9464388814748429</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.816948110472894</v>
+        <v>1.893538419345959</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9464388814748429</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.893538419345959</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2153393115435824</v>
       </c>
     </row>
@@ -2388,72 +2364,66 @@
         <v>1.334653260789399e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.01599615681322</v>
+        <v>8.117882837007423e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.031001067838564</v>
+        <v>3.859035356217078e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.117882837007423e-07</v>
+        <v>0.0781237542098034</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.859035356217078e-06</v>
+        <v>0.3021817456216749</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0781237542098034</v>
+        <v>0.09724251187717155</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3021817456216749</v>
+        <v>1.532758790012849</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.09724251187717155</v>
+        <v>1.678350934185957</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.430324559824252</v>
+        <v>3.543168515394757</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.678350934185957</v>
+        <v>6.612279784975651e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.543168515394757</v>
+        <v>36611986.25734986</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.612279784975651e-15</v>
+        <v>2.877544754839713e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>36611986.25734986</v>
+        <v>8.863348033611626</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.877544754839713e-06</v>
+        <v>0.0001277252828682613</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8.863348033611626</v>
+        <v>8.737469742446125</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001277252828682613</v>
+        <v>1.532737927508848</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.737469742446125</v>
+        <v>0.009750979486326588</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.532737927508848</v>
+        <v>2.997493410602269</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009750979486326588</v>
+        <v>0.9468483173093261</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.997493410602269</v>
+        <v>1.870645980443133</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9468483173093261</v>
+        <v>10</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.870645980443133</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2220798593405351</v>
       </c>
     </row>
@@ -2468,72 +2438,66 @@
         <v>1.167307003304742e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.430780452300788</v>
+        <v>6.273710502081621e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.06809433605926518</v>
+        <v>3.867815366704046e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>6.273710502081621e-07</v>
+        <v>0.06307905345168922</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.867815366704046e-06</v>
+        <v>0.285033081421963</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.06307905345168922</v>
+        <v>0.08510898871940333</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.285033081421963</v>
+        <v>1.562996439503628</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.08510898871940333</v>
+        <v>1.551682819332237</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.457605402240607</v>
+        <v>3.533804932042485</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.551682819332237</v>
+        <v>6.647367551413331e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.533804932042485</v>
+        <v>35487400.00930405</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.647367551413331e-15</v>
+        <v>3.021749789284558e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>35487400.00930405</v>
+        <v>8.371399281382839</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.021749789284558e-06</v>
+        <v>0.0001229422966659401</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8.371399281382839</v>
+        <v>8.070261844006351</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001229422966659401</v>
+        <v>1.52350643734553</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.070261844006351</v>
+        <v>0.008007124358663522</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.52350643734553</v>
+        <v>2.996687579107657</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008007124358663522</v>
+        <v>0.9471021638559917</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.996687579107657</v>
+        <v>1.861897494439682</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9471021638559917</v>
+        <v>9</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.861897494439682</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2285939717511804</v>
       </c>
     </row>
@@ -2548,72 +2512,66 @@
         <v>1.075887542906992e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1472097733334974</v>
+        <v>4.944867171761389e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8533948685501427</v>
+        <v>3.874090367085141e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.944867171761389e-07</v>
+        <v>0.04978120112749447</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.874090367085141e-06</v>
+        <v>0.2690555027207728</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04978120112749447</v>
+        <v>0.07479646080857107</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2690555027207728</v>
+        <v>1.579465499596308</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.07479646080857107</v>
+        <v>1.740046604543297</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.481009570422707</v>
+        <v>3.477013514137363</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.740046604543297</v>
+        <v>6.866289027600403e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.477013514137363</v>
+        <v>34848766.36776812</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.866289027600403e-15</v>
+        <v>3.073006587949335e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>34848766.36776812</v>
+        <v>8.338672133833851</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.073006587949335e-06</v>
+        <v>0.0001213036626723582</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8.338672133833851</v>
+        <v>7.446652878324942</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001213036626723582</v>
+        <v>1.44379217460226</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.446652878324942</v>
+        <v>0.006726608226497545</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.44379217460226</v>
+        <v>3.083856375333021</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006726608226497545</v>
+        <v>0.9475779118782329</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.083856375333021</v>
+        <v>1.852690461342557</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9475779118782329</v>
+        <v>8</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.852690461342557</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2112088552838661</v>
       </c>
     </row>
@@ -2628,72 +2586,66 @@
         <v>1.030138396428341e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.08467268703270002</v>
+        <v>3.998471105606879e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9693658364464661</v>
+        <v>3.878754137517588e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.998471105606879e-07</v>
+        <v>0.03939547622928326</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.878754137517588e-06</v>
+        <v>0.2575145769063916</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03939547622928326</v>
+        <v>0.06782739855139054</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2575145769063916</v>
+        <v>1.524143529424199</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06782739855139054</v>
+        <v>1.582603115309708</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.429125521238119</v>
+        <v>3.4152633889576</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.582603115309708</v>
+        <v>7.765407053162081e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.4152633889576</v>
+        <v>31950796.15203361</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.765407053162081e-15</v>
+        <v>3.246133416614791e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>31950796.15203361</v>
+        <v>7.92734199651869</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.246133416614791e-06</v>
+        <v>0.0001380914846252127</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7.92734199651869</v>
+        <v>8.884594043489296</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001380914846252127</v>
+        <v>1.460803706623554</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.884594043489296</v>
+        <v>0.01090039099324073</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.460803706623554</v>
+        <v>2.874437485970889</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01090039099324073</v>
+        <v>0.9410485652807309</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.874437485970889</v>
+        <v>1.857020178220539</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9410485652807309</v>
+        <v>9</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.857020178220539</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2073002892108574</v>
       </c>
     </row>
@@ -3070,7 +3022,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.298418288676976</v>
+        <v>1.317455125140449</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.74425698052613</v>
@@ -3159,7 +3111,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.318575088185311</v>
+        <v>1.34187571264931</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.756481106302876</v>
@@ -3248,7 +3200,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.334549863210499</v>
+        <v>1.359236651659377</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.778391046473998</v>
@@ -3337,7 +3289,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.430874151996002</v>
+        <v>1.447935391890907</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.880801469938407</v>
@@ -3426,7 +3378,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.500455923357379</v>
+        <v>1.523096698401272</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.424511704166004</v>
@@ -3515,7 +3467,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.521510692685116</v>
+        <v>1.542874181482983</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.543700569557675</v>
@@ -3604,7 +3556,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.551241765757112</v>
+        <v>1.570853710233701</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.591513928540321</v>
@@ -3693,7 +3645,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.58042352593532</v>
+        <v>1.594342512447256</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.507046362460681</v>
@@ -3782,7 +3734,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.597742901187545</v>
+        <v>1.613735274535344</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.555562501899279</v>
@@ -3871,7 +3823,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.638822692071244</v>
+        <v>1.651121500789354</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.458908869956023</v>
@@ -3960,7 +3912,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.66922943598264</v>
+        <v>1.681168324915761</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.975143758318779</v>
@@ -4049,7 +4001,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.733095804776676</v>
+        <v>1.73955305729925</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.889060863747683</v>
@@ -4138,7 +4090,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.733173370023982</v>
+        <v>1.738919906448927</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.246773298380726</v>
@@ -4227,7 +4179,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.772289780579286</v>
+        <v>1.76924803070582</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.868477842372946</v>
@@ -4316,7 +4268,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.815225596557011</v>
+        <v>1.809303119149078</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.656083802109827</v>
@@ -4405,7 +4357,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.818242018702332</v>
+        <v>1.814014024390495</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.151134170228147</v>
@@ -4494,7 +4446,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.825096692865539</v>
+        <v>1.821234025485543</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.464979927770019</v>
@@ -4583,7 +4535,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.853546821676168</v>
+        <v>1.84882108186549</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.908232816236046</v>
@@ -4672,7 +4624,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.861492655974411</v>
+        <v>1.864039231002047</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.149936657699486</v>
@@ -4761,7 +4713,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.835745193058413</v>
+        <v>1.838009913477949</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.435184578039699</v>
@@ -4850,7 +4802,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.826714088399313</v>
+        <v>1.837008128985466</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.222129481316907</v>
@@ -4939,7 +4891,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.837867470955196</v>
+        <v>1.84621939042738</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.4599872425102</v>
@@ -5028,7 +4980,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.853788169221379</v>
+        <v>1.865268437424725</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.718201439687816</v>
@@ -5117,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.850794037725321</v>
+        <v>1.864486046618203</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.493774932611711</v>
@@ -5206,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.855608395012583</v>
+        <v>1.865358422491665</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.550445729447715</v>
@@ -5295,7 +5247,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.863423549357234</v>
+        <v>1.859546692666437</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.049091807397182</v>
@@ -5384,7 +5336,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.809189247089344</v>
+        <v>1.819203338325286</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.069389817613502</v>
@@ -5473,7 +5425,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.736671481515573</v>
+        <v>1.756233431647713</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.801297021003173</v>
@@ -5562,7 +5514,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.724985840043668</v>
+        <v>1.747074234102251</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.662707106427458</v>
@@ -5651,7 +5603,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.718008626896752</v>
+        <v>1.738138380406145</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.649839928124262</v>
@@ -5740,7 +5692,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.708565457860727</v>
+        <v>1.719311587005146</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.690221763083692</v>
@@ -5829,7 +5781,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.677501171266409</v>
+        <v>1.698342667427036</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.691354144883497</v>
@@ -5918,7 +5870,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.675307845763399</v>
+        <v>1.690229408740058</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.658181995362515</v>
@@ -6007,7 +5959,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.682652888822744</v>
+        <v>1.69902211286581</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.555193776946761</v>
@@ -6096,7 +6048,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.710386118705892</v>
+        <v>1.718022591607338</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.533393070137148</v>
@@ -6185,7 +6137,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.695669633939932</v>
+        <v>1.705400022196401</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.593122673827762</v>
@@ -6274,7 +6226,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.685073508171496</v>
+        <v>1.691963019950605</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.528996581520993</v>
@@ -6363,7 +6315,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.677240272909954</v>
+        <v>1.680346784392905</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.547385971155167</v>
@@ -6452,7 +6404,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.680659319839867</v>
+        <v>1.681141984172259</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.524882710119191</v>
@@ -6541,7 +6493,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.680209820711945</v>
+        <v>1.682104849614998</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.516177712965211</v>
@@ -6630,7 +6582,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.712062784077872</v>
+        <v>1.711755480564672</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.365273204258636</v>
@@ -6719,7 +6671,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.782629034560613</v>
+        <v>1.774304407732203</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.435556654653568</v>
@@ -6808,7 +6760,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.850710173290988</v>
+        <v>1.82595432293362</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.175713500179353</v>
@@ -6897,7 +6849,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.836120760422953</v>
+        <v>1.818424235746309</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.306006216668203</v>
@@ -6986,7 +6938,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.818686244601412</v>
+        <v>1.805838254213656</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.199844935627394</v>
@@ -7075,7 +7027,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.847659861110974</v>
+        <v>1.830267572989547</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.37226915574771</v>
@@ -7164,7 +7116,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.852008282234298</v>
+        <v>1.834617052301094</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.722796117521324</v>
@@ -7253,7 +7205,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.857924374346932</v>
+        <v>1.844659284414337</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.778735115396056</v>
@@ -7342,7 +7294,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.829478900119729</v>
+        <v>1.82031919529186</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.162607661706166</v>
@@ -7431,7 +7383,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.832472021892274</v>
+        <v>1.8240715265654</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.315760328142399</v>
@@ -7520,7 +7472,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.853531668777377</v>
+        <v>1.839851702578992</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.108130581511818</v>
@@ -7806,7 +7758,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.924478982386793</v>
+        <v>1.961016842247511</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.006998915984677</v>
@@ -7895,7 +7847,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.933651516668445</v>
+        <v>1.974754891498296</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.300872565891341</v>
@@ -7984,7 +7936,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.936956776585438</v>
+        <v>1.979895895178904</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.404272154970857</v>
@@ -8073,7 +8025,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.954139322617275</v>
+        <v>1.994906155984343</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.929961830524806</v>
@@ -8162,7 +8114,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.975720021404682</v>
+        <v>2.017350463563913</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.275660723596407</v>
@@ -8251,7 +8203,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.984322364448638</v>
+        <v>2.034282780017483</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.890792026144825</v>
@@ -8340,7 +8292,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.990321902760896</v>
+        <v>2.038124270597149</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.726405583198226</v>
@@ -8429,7 +8381,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.997752104954505</v>
+        <v>2.045909774478263</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.746567855963753</v>
@@ -8518,7 +8470,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.99626068307137</v>
+        <v>2.051352533046896</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.36684285579094</v>
@@ -8607,7 +8559,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.998646653734612</v>
+        <v>2.062582888862766</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5.387485686339633</v>
@@ -8696,7 +8648,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.995518059077136</v>
+        <v>2.069694432171214</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.798548246786445</v>
@@ -8785,7 +8737,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.994875831953652</v>
+        <v>2.070303396891337</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>5.716413622107408</v>
@@ -8874,7 +8826,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.989991254846893</v>
+        <v>2.069886229605319</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.722724157910276</v>
@@ -8963,7 +8915,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.98916167839144</v>
+        <v>2.070468506100523</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.907286939963117</v>
@@ -9052,7 +9004,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.986736936750338</v>
+        <v>2.070187505806908</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.667000582776833</v>
@@ -9141,7 +9093,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.986199984254209</v>
+        <v>2.067434389433516</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.433340862347713</v>
@@ -9230,7 +9182,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.984003410842621</v>
+        <v>2.068100404934443</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.842923199735921</v>
@@ -9319,7 +9271,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.992095339645182</v>
+        <v>2.076649682002073</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.668668713417725</v>
@@ -9408,7 +9360,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.993312847604906</v>
+        <v>2.077379694048653</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>5.115050303243114</v>
@@ -9497,7 +9449,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.990922201557699</v>
+        <v>2.076733612529438</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.825482438378006</v>
@@ -9586,7 +9538,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.988293912131373</v>
+        <v>2.070610260813393</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.772194691898188</v>
@@ -9675,7 +9627,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.986713105592338</v>
+        <v>2.069835281889506</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.949286699309057</v>
@@ -9764,7 +9716,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.990114555894944</v>
+        <v>2.073514341242829</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.051415102160091</v>
@@ -9853,7 +9805,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.987720483469889</v>
+        <v>2.067483378026354</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.448042147344782</v>
@@ -9942,7 +9894,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.985013463524193</v>
+        <v>2.060552860985104</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.206670644363265</v>
@@ -10031,7 +9983,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.981233163241628</v>
+        <v>2.047258117716873</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.439076459266454</v>
@@ -10120,7 +10072,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.97663561578269</v>
+        <v>2.03846391754319</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.740990711294473</v>
@@ -10209,7 +10161,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.966071678760386</v>
+        <v>2.023900635778759</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.571749898860851</v>
@@ -10298,7 +10250,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.964928592733691</v>
+        <v>2.01956778206687</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.937228350415449</v>
@@ -10387,7 +10339,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.968411225754263</v>
+        <v>2.023377387780353</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.120275619666701</v>
@@ -10476,7 +10428,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.964401488649344</v>
+        <v>2.020591745476588</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.702380467387631</v>
@@ -10565,7 +10517,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.964308773207677</v>
+        <v>2.014781559929284</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.930527882685837</v>
@@ -10654,7 +10606,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.961672243971185</v>
+        <v>2.009985192828946</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.406810442402021</v>
@@ -10743,7 +10695,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.970688433453372</v>
+        <v>2.019463901864612</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.753722676330898</v>
@@ -10832,7 +10784,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.970895739186084</v>
+        <v>2.012630995504475</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.989729520330154</v>
@@ -10921,7 +10873,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.970874291357186</v>
+        <v>2.01964663369379</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.379285833503744</v>
@@ -11010,7 +10962,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.973346661393524</v>
+        <v>2.028148381854271</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.218706395578283</v>
@@ -11099,7 +11051,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.974035658988069</v>
+        <v>2.020244631140855</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.288169838273515</v>
@@ -11188,7 +11140,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.975907612921109</v>
+        <v>2.031184014048292</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.732603607980698</v>
@@ -11277,7 +11229,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.97953706452989</v>
+        <v>2.037484418168186</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.216351677748972</v>
@@ -11366,7 +11318,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.98893131034091</v>
+        <v>2.061263990515696</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.071249314708444</v>
@@ -11455,7 +11407,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.992434542940816</v>
+        <v>2.072567298213487</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.950177056331653</v>
@@ -11544,7 +11496,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.005979034940003</v>
+        <v>2.081872432187</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.452045171472821</v>
@@ -11633,7 +11585,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.003700666521038</v>
+        <v>2.087043263885633</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.076427147725567</v>
@@ -11722,7 +11674,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.999555177939705</v>
+        <v>2.080879616727117</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.267757250469659</v>
@@ -11811,7 +11763,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.999855524805433</v>
+        <v>2.083531858492645</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.128238752300653</v>
@@ -11900,7 +11852,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.998910261776521</v>
+        <v>2.086403029396599</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.251463412184032</v>
@@ -11989,7 +11941,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.997637687715261</v>
+        <v>2.087740564810128</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.812926854907099</v>
@@ -12078,7 +12030,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.986812210023939</v>
+        <v>2.07875338841416</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.139144487495423</v>
@@ -12167,7 +12119,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.983565957784384</v>
+        <v>2.080728774290235</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.510448365583398</v>
@@ -12256,7 +12208,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.982158005107922</v>
+        <v>2.070457414150674</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.761466855254112</v>
@@ -12542,7 +12494,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.851753581712093</v>
+        <v>1.877109155490456</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.148431302946598</v>
@@ -12631,7 +12583,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.861058269681066</v>
+        <v>1.890059211894472</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.469610432556682</v>
@@ -12720,7 +12672,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.866460844562277</v>
+        <v>1.897971666405663</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.333147121716381</v>
@@ -12809,7 +12761,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.895423816699847</v>
+        <v>1.919904441039664</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.17982529220331</v>
@@ -12898,7 +12850,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.908351933614429</v>
+        <v>1.936856231721725</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.025425368465576</v>
@@ -12987,7 +12939,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.917275551689185</v>
+        <v>1.949220280579962</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.519041923903004</v>
@@ -13076,7 +13028,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.927367489569577</v>
+        <v>1.957834347511917</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.137393536626978</v>
@@ -13165,7 +13117,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.932762586329737</v>
+        <v>1.963820929024961</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.480114652789753</v>
@@ -13254,7 +13206,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.932130251576428</v>
+        <v>1.96724450506005</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.393134356679578</v>
@@ -13343,7 +13295,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.93466292185419</v>
+        <v>1.974787718719538</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.789510382976441</v>
@@ -13432,7 +13384,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.940151333751441</v>
+        <v>1.97932420748788</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.635573255457564</v>
@@ -13521,7 +13473,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.946444070355197</v>
+        <v>1.987926256591075</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.583792567546366</v>
@@ -13610,7 +13562,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.933440546966825</v>
+        <v>1.975481165547686</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.379123039905628</v>
@@ -13699,7 +13651,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.937348907973775</v>
+        <v>1.979048867830685</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.26504557861176</v>
@@ -13788,7 +13740,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.942260921239011</v>
+        <v>1.989341540473275</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.704104472588271</v>
@@ -13877,7 +13829,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.941075457180999</v>
+        <v>1.984739566525014</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.941831935584038</v>
@@ -13966,7 +13918,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.937112312226181</v>
+        <v>1.980934009228999</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.575773695256835</v>
@@ -14055,7 +14007,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.942654631930787</v>
+        <v>1.987254926888967</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.432505977913792</v>
@@ -14144,7 +14096,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.946310923820277</v>
+        <v>1.992479203635109</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.574146004950571</v>
@@ -14233,7 +14185,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.944567573384423</v>
+        <v>1.991234254238168</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>5.030800513782101</v>
@@ -14322,7 +14274,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.936140342872646</v>
+        <v>1.986130300208012</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>5.107900444534218</v>
@@ -14411,7 +14363,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.936683346614811</v>
+        <v>1.984086631932527</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.544765397476868</v>
@@ -14500,7 +14452,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.943727106936236</v>
+        <v>1.992634901295854</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.843470890213395</v>
@@ -14589,7 +14541,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.940948456890649</v>
+        <v>1.986610568987516</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.878485951825673</v>
@@ -14678,7 +14630,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.935400784692423</v>
+        <v>1.97428930582305</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.068521966462662</v>
@@ -14767,7 +14719,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.929068529257662</v>
+        <v>1.961928509799856</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.464860968940327</v>
@@ -14856,7 +14808,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.91228040938236</v>
+        <v>1.939864289371703</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.686125907267238</v>
@@ -14945,7 +14897,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.888225379394919</v>
+        <v>1.912879842102102</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.471090651980888</v>
@@ -15034,7 +14986,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.884078482569254</v>
+        <v>1.906044248972583</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.451859783037399</v>
@@ -15123,7 +15075,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.881876699808137</v>
+        <v>1.908373708353604</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.799696885591294</v>
@@ -15212,7 +15164,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.879977501036574</v>
+        <v>1.908813102352428</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.493454636963718</v>
@@ -15301,7 +15253,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.880129200274359</v>
+        <v>1.908486105986559</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.517209514980446</v>
@@ -15390,7 +15342,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.879674781600072</v>
+        <v>1.905980479349466</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.249491858402002</v>
@@ -15479,7 +15431,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.890316410792839</v>
+        <v>1.917580313764083</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.499793417752331</v>
@@ -15568,7 +15520,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.895799281623887</v>
+        <v>1.920480038028902</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.633948385469449</v>
@@ -15657,7 +15609,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.899758442880839</v>
+        <v>1.918952894382672</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.395090584070604</v>
@@ -15746,7 +15698,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.898847591377517</v>
+        <v>1.924282471297009</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.821615686021848</v>
@@ -15835,7 +15787,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.903547288436613</v>
+        <v>1.925962082671718</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.682934803973817</v>
@@ -15924,7 +15876,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.905413983216533</v>
+        <v>1.937757014202</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.946206633932245</v>
@@ -16013,7 +15965,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.910903171849118</v>
+        <v>1.94412776297168</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.785875487848461</v>
@@ -16102,7 +16054,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.926483067133437</v>
+        <v>1.970106345764294</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.757247553554008</v>
@@ -16191,7 +16143,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.945699021699869</v>
+        <v>1.993318701064879</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.742631711625937</v>
@@ -16280,7 +16232,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.966686735437038</v>
+        <v>2.010550170187425</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.64301810479255</v>
@@ -16369,7 +16321,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.969454547816954</v>
+        <v>2.018541687295686</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.011414435529666</v>
@@ -16458,7 +16410,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.970638199965942</v>
+        <v>2.013476664816641</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.118274525273677</v>
@@ -16547,7 +16499,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.969803035890338</v>
+        <v>2.014445662986372</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.724073733553507</v>
@@ -16636,7 +16588,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.971007353622301</v>
+        <v>2.017499906772549</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.292224270792319</v>
@@ -16725,7 +16677,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.971041641697191</v>
+        <v>2.016598903902269</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.199837682127074</v>
@@ -16814,7 +16766,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.962434079434302</v>
+        <v>2.007148761714424</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.669173761087484</v>
@@ -16903,7 +16855,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.961541107636334</v>
+        <v>2.004514308217987</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.544324478581842</v>
@@ -16992,7 +16944,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.959979872467526</v>
+        <v>2.002331693074456</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.269070726713407</v>
@@ -17278,7 +17230,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.731243536209818</v>
+        <v>1.706592744279939</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.535053772636394</v>
@@ -17367,7 +17319,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.735513468005309</v>
+        <v>1.712900025372427</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.440055574203366</v>
@@ -17456,7 +17408,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.740655465813964</v>
+        <v>1.715809506786181</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.602546237981692</v>
@@ -17545,7 +17497,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.770464188879385</v>
+        <v>1.745859835867384</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.933242312984274</v>
@@ -17634,7 +17586,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.771421978438131</v>
+        <v>1.749602178889273</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.283714916656336</v>
@@ -17723,7 +17675,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.755601967521019</v>
+        <v>1.745734626913372</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.287598227664159</v>
@@ -17812,7 +17764,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.76508186215145</v>
+        <v>1.749903615155276</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.180437336756878</v>
@@ -17901,7 +17853,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.766565863821047</v>
+        <v>1.74730923311805</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.336576992159816</v>
@@ -17990,7 +17942,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.774526059335464</v>
+        <v>1.75192628605615</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.272953186211054</v>
@@ -18079,7 +18031,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.778631185480008</v>
+        <v>1.752389027720788</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.966141066221348</v>
@@ -18168,7 +18120,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.77113102667861</v>
+        <v>1.742108632632833</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.491638269244487</v>
@@ -18257,7 +18209,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.788196672689933</v>
+        <v>1.752857901138822</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.151985179272564</v>
@@ -18346,7 +18298,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.793447691684106</v>
+        <v>1.754645742641459</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.041374680312833</v>
@@ -18435,7 +18387,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.79978761918045</v>
+        <v>1.75858313804528</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.308965507536886</v>
@@ -18524,7 +18476,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.810995189483517</v>
+        <v>1.76812452709547</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.233871562176606</v>
@@ -18613,7 +18565,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.814042638997311</v>
+        <v>1.765593353625051</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.967303946953467</v>
@@ -18702,7 +18654,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.812890166964938</v>
+        <v>1.765858830355788</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.033574690818667</v>
@@ -18791,7 +18743,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.823788604602252</v>
+        <v>1.774747588954568</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.909283566969758</v>
@@ -18880,7 +18832,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.831512436301786</v>
+        <v>1.782922419575901</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.257641246326556</v>
@@ -18969,7 +18921,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.837918771978954</v>
+        <v>1.789382245859561</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.305539231103902</v>
@@ -19058,7 +19010,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.847975632710772</v>
+        <v>1.792342044787921</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.550934813623377</v>
@@ -19147,7 +19099,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.855313577965946</v>
+        <v>1.803163182197818</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.756673474869391</v>
@@ -19236,7 +19188,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.857918890733434</v>
+        <v>1.808444537204438</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.327778162838827</v>
@@ -19325,7 +19277,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.856685041185654</v>
+        <v>1.813397004475289</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.57214155661483</v>
@@ -19414,7 +19366,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.859837566308738</v>
+        <v>1.817230618755721</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.789030053578002</v>
@@ -19503,7 +19455,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.856857457942656</v>
+        <v>1.813568818516915</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.817383941349291</v>
@@ -19592,7 +19544,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.847735306289073</v>
+        <v>1.807166946339141</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.379575326904192</v>
@@ -19681,7 +19633,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.837026885037275</v>
+        <v>1.794789814783495</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.585622462938357</v>
@@ -19770,7 +19722,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.838650432635781</v>
+        <v>1.802435031342401</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.291693323461183</v>
@@ -19859,7 +19811,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.847795409934623</v>
+        <v>1.811164369717143</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.477520033582767</v>
@@ -19948,7 +19900,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.850325780806059</v>
+        <v>1.816923281911187</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.774965113036294</v>
@@ -20037,7 +19989,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.850062894062421</v>
+        <v>1.818534301466763</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.416373720995406</v>
@@ -20126,7 +20078,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.851178933061982</v>
+        <v>1.8213724147252</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.63887605133202</v>
@@ -20215,7 +20167,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.853155834105482</v>
+        <v>1.82095639612173</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.882471597107877</v>
@@ -20304,7 +20256,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.859172442200954</v>
+        <v>1.823986509285847</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.444682930735917</v>
@@ -20393,7 +20345,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.860018221409508</v>
+        <v>1.82848621264501</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.353901917326269</v>
@@ -20482,7 +20434,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.861705632926601</v>
+        <v>1.831862209523902</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.94493634846638</v>
@@ -20571,7 +20523,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.870752121147979</v>
+        <v>1.839933550187783</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.76765617521348</v>
@@ -20660,7 +20612,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.87778660653746</v>
+        <v>1.842604854662556</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.056613989513393</v>
@@ -20749,7 +20701,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.883580393797542</v>
+        <v>1.850448573712514</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.389799372918573</v>
@@ -20838,7 +20790,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.894600298112167</v>
+        <v>1.864094952450113</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.066621903945659</v>
@@ -20927,7 +20879,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.913055388794005</v>
+        <v>1.882544211826902</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.840736379920645</v>
@@ -21016,7 +20968,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.91982694317189</v>
+        <v>1.892280551381234</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.738433963878252</v>
@@ -21105,7 +21057,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.917900388614643</v>
+        <v>1.887313356387511</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.181479518481749</v>
@@ -21194,7 +21146,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.902996849322657</v>
+        <v>1.874439879272638</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.863500773132651</v>
@@ -21283,7 +21235,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.914220996620083</v>
+        <v>1.881568053063253</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.530120432815878</v>
@@ -21372,7 +21324,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.91277247731293</v>
+        <v>1.884660113789013</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.000157003928769</v>
@@ -21461,7 +21413,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.91173821647475</v>
+        <v>1.88043708793229</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.184396179477337</v>
@@ -21550,7 +21502,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.910322458283632</v>
+        <v>1.884014884101824</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.687836861607165</v>
@@ -21639,7 +21591,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.913527257489629</v>
+        <v>1.887139741448757</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.89167200904156</v>
@@ -21728,7 +21680,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.923384981079783</v>
+        <v>1.903156400551118</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.807533930939677</v>
@@ -22014,7 +21966,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.608136363873561</v>
+        <v>1.576678634921091</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.96014086162954</v>
@@ -22103,7 +22055,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.614008539687665</v>
+        <v>1.578847648353845</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.085536833950478</v>
@@ -22192,7 +22144,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.608167390387581</v>
+        <v>1.565853802465396</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.753112658256234</v>
@@ -22281,7 +22233,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.633237458603533</v>
+        <v>1.582982884790725</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.776565560958956</v>
@@ -22370,7 +22322,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.649791481326558</v>
+        <v>1.601017302929595</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.911921574510651</v>
@@ -22459,7 +22411,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661662813362775</v>
+        <v>1.613613377858424</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.85789851213461</v>
@@ -22548,7 +22500,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.678376668913721</v>
+        <v>1.627136939153703</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.163580134691982</v>
@@ -22637,7 +22589,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.696384736834859</v>
+        <v>1.647499549291479</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.071433094672949</v>
@@ -22726,7 +22678,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.693037666824787</v>
+        <v>1.654330045214902</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.180634721075447</v>
@@ -22815,7 +22767,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.70899415989995</v>
+        <v>1.667896674777259</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.179946473898453</v>
@@ -22904,7 +22856,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.742456285836814</v>
+        <v>1.690762909091535</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.830660175316578</v>
@@ -22993,7 +22945,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.756162631245189</v>
+        <v>1.70486823157011</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.577938367900855</v>
@@ -23082,7 +23034,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.743452191323015</v>
+        <v>1.691483589431421</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.340598399874377</v>
@@ -23171,7 +23123,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.748557368270936</v>
+        <v>1.688645894216635</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.178939317699872</v>
@@ -23260,7 +23212,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.745708924844404</v>
+        <v>1.695670314560252</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.978624615259077</v>
@@ -23349,7 +23301,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.740307411339791</v>
+        <v>1.692865251827705</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.286459212010163</v>
@@ -23438,7 +23390,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.746356925642015</v>
+        <v>1.708694326833607</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.572399348333065</v>
@@ -23527,7 +23479,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.764943588179878</v>
+        <v>1.732077003900346</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.248946937875253</v>
@@ -23616,7 +23568,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.773329964468706</v>
+        <v>1.738292876391749</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.479090301063953</v>
@@ -23705,7 +23657,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.750739973611019</v>
+        <v>1.719869936360215</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.814812702256119</v>
@@ -23794,7 +23746,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.741352489365902</v>
+        <v>1.711187874667376</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.79126781118245</v>
@@ -23883,7 +23835,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.735669089903064</v>
+        <v>1.705832525999818</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.519899268564808</v>
@@ -23972,7 +23924,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.735511608615828</v>
+        <v>1.711426331240086</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.155503378085049</v>
@@ -24061,7 +24013,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.730626541632894</v>
+        <v>1.698907938612594</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.142947097949282</v>
@@ -24150,7 +24102,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.723644101731947</v>
+        <v>1.690905021254164</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.825337927823148</v>
@@ -24239,7 +24191,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.715490265217067</v>
+        <v>1.680215927459418</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.345039328110818</v>
@@ -24328,7 +24280,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.694632365879559</v>
+        <v>1.658095535991672</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.347325828426422</v>
@@ -24417,7 +24369,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.665314626900526</v>
+        <v>1.635689542799135</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.335097751771069</v>
@@ -24506,7 +24458,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.68006243941618</v>
+        <v>1.655710586867734</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.248163958208482</v>
@@ -24595,7 +24547,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.695254526805495</v>
+        <v>1.674032419941768</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.378785777232754</v>
@@ -24684,7 +24636,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.69742810795126</v>
+        <v>1.67816993668182</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.099193930594938</v>
@@ -24773,7 +24725,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.695937910396574</v>
+        <v>1.679794754228413</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.093741535865984</v>
@@ -24862,7 +24814,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.691551918463509</v>
+        <v>1.681081273029234</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.319895729604642</v>
@@ -24951,7 +24903,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.703254822288335</v>
+        <v>1.693791587256656</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.132260305960415</v>
@@ -25040,7 +24992,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.717059664795881</v>
+        <v>1.703856502730002</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.200552312089503</v>
@@ -25129,7 +25081,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.716864244709979</v>
+        <v>1.702222352606203</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.146570330464936</v>
@@ -25218,7 +25170,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.71929488501847</v>
+        <v>1.705014252836043</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.049074660153549</v>
@@ -25307,7 +25259,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.712799190898415</v>
+        <v>1.69734254899194</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.095354174286014</v>
@@ -25396,7 +25348,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.718249558258977</v>
+        <v>1.707048162437134</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.118825699265213</v>
@@ -25485,7 +25437,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.712311522218575</v>
+        <v>1.709011125884561</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.287966033635604</v>
@@ -25574,7 +25526,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.72184787871206</v>
+        <v>1.717468141252087</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.269857979438501</v>
@@ -25663,7 +25615,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.752317354478716</v>
+        <v>1.748215358134586</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.022711396444107</v>
@@ -25752,7 +25704,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.775137388581733</v>
+        <v>1.766016407597385</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.205242825445155</v>
@@ -25841,7 +25793,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.750700055388009</v>
+        <v>1.746719008362762</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.07406555997175</v>
@@ -25930,7 +25882,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.725124371479317</v>
+        <v>1.721913857382641</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.135880398182129</v>
@@ -26019,7 +25971,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.719705909081189</v>
+        <v>1.714499860465297</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.546368632973207</v>
@@ -26108,7 +26060,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.713355793583913</v>
+        <v>1.705592995545358</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.563361185003613</v>
@@ -26197,7 +26149,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.692199267408162</v>
+        <v>1.683931691326724</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.052672648905335</v>
@@ -26286,7 +26238,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.655925938131534</v>
+        <v>1.646493389450919</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.594521267446209</v>
@@ -26375,7 +26327,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.650180611589992</v>
+        <v>1.640900781633049</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.625908186118204</v>
@@ -26464,7 +26416,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.654889481773837</v>
+        <v>1.643535551747003</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.822119874612296</v>
@@ -26750,7 +26702,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.474243854383461</v>
+        <v>1.496811054758999</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.534929879415506</v>
@@ -26839,7 +26791,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.502343565464004</v>
+        <v>1.526772056433352</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.293892442235859</v>
@@ -26928,7 +26880,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.52534666661968</v>
+        <v>1.548676999938472</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.507618974649896</v>
@@ -27017,7 +26969,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.539751726052444</v>
+        <v>1.559232080755286</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.127305104995395</v>
@@ -27106,7 +27058,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.54901122232227</v>
+        <v>1.570011545465445</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.482248788893926</v>
@@ -27195,7 +27147,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.5597585106434</v>
+        <v>1.579055797094306</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.33881036309883</v>
@@ -27284,7 +27236,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.584050830956873</v>
+        <v>1.603756697089171</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.45124034565728</v>
@@ -27373,7 +27325,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.613637525320584</v>
+        <v>1.629763144254144</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.476660278246748</v>
@@ -27462,7 +27414,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.62794515163237</v>
+        <v>1.648426077679435</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.543156862121779</v>
@@ -27551,7 +27503,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.671363817725389</v>
+        <v>1.687734720306334</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.522766983816569</v>
@@ -27640,7 +27592,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.692360776233308</v>
+        <v>1.701656515796856</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.262060689946832</v>
@@ -27729,7 +27681,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.741374579205802</v>
+        <v>1.743694789287266</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.943656654882544</v>
@@ -27818,7 +27770,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.743952228110051</v>
+        <v>1.749235324073354</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.392594725441957</v>
@@ -27907,7 +27859,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.778204919789566</v>
+        <v>1.781493458358844</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.086129814372928</v>
@@ -27996,7 +27948,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.816699508282383</v>
+        <v>1.814963503782366</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.744444710009571</v>
@@ -28085,7 +28037,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.815237273406175</v>
+        <v>1.812747828060061</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.052995934871882</v>
@@ -28174,7 +28126,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.822693604188349</v>
+        <v>1.821470671287312</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.471754703001573</v>
@@ -28263,7 +28215,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.851053179528256</v>
+        <v>1.846935856169479</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.934122785380712</v>
@@ -28352,7 +28304,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.859979648058376</v>
+        <v>1.857242613136671</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.456997390892242</v>
@@ -28441,7 +28393,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.837571638934032</v>
+        <v>1.835366147543965</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.372242554638139</v>
@@ -28530,7 +28482,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.825101508703727</v>
+        <v>1.831153141804239</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.462362940180975</v>
@@ -28619,7 +28571,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.8209254439256</v>
+        <v>1.825321979247186</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.479182338658641</v>
@@ -28708,7 +28660,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.835365633924567</v>
+        <v>1.837536758659263</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.874658320626736</v>
@@ -28797,7 +28749,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.841317691312664</v>
+        <v>1.84353574688764</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.362052487616915</v>
@@ -28886,7 +28838,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.847857796260157</v>
+        <v>1.84622959387513</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.365627017522721</v>
@@ -28975,7 +28927,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.860020957758459</v>
+        <v>1.844408096855165</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.20598606079875</v>
@@ -29064,7 +29016,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.807304534661229</v>
+        <v>1.809672235350408</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.088844475107714</v>
@@ -29153,7 +29105,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.747798323146119</v>
+        <v>1.759090879006618</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.767383368775056</v>
@@ -29242,7 +29194,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.735324856658861</v>
+        <v>1.745074887416308</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.679763116031373</v>
@@ -29331,7 +29283,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.732856645368704</v>
+        <v>1.745731728871835</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.707438968771391</v>
@@ -29420,7 +29372,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.738372643605852</v>
+        <v>1.742994416385038</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.85091753497754</v>
@@ -29509,7 +29461,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.716360630042403</v>
+        <v>1.729423644896061</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.718914399387265</v>
@@ -29598,7 +29550,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.717882214245091</v>
+        <v>1.727631520205224</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.80313267110068</v>
@@ -29687,7 +29639,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.718843243785477</v>
+        <v>1.727610841658572</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.813080002234477</v>
@@ -29776,7 +29728,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.751711046114735</v>
+        <v>1.756863228683397</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.63440005247319</v>
@@ -29865,7 +29817,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.741402676116147</v>
+        <v>1.751488101494739</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.728802333776579</v>
@@ -29954,7 +29906,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.750106297982324</v>
+        <v>1.766231536733571</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.781434836097148</v>
@@ -30043,7 +29995,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.753066741224498</v>
+        <v>1.768598105347808</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.749610382300892</v>
@@ -30132,7 +30084,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.760996007724879</v>
+        <v>1.772420711157502</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.879529290901839</v>
@@ -30221,7 +30173,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.760804534491484</v>
+        <v>1.775204112667321</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.988539899686359</v>
@@ -30310,7 +30262,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.793038394307684</v>
+        <v>1.802868011523515</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.605159132334329</v>
@@ -30399,7 +30351,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.852578226436628</v>
+        <v>1.851562484549029</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.635488696967916</v>
@@ -30488,7 +30440,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.89671285979898</v>
+        <v>1.883974043746867</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.303043184138352</v>
@@ -30577,7 +30529,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.887696719335324</v>
+        <v>1.883664262427495</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.320119126085992</v>
@@ -30666,7 +30618,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.866973479474415</v>
+        <v>1.86689938874825</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.463081892373101</v>
@@ -30755,7 +30707,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.889788895819835</v>
+        <v>1.883410423412996</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.390800865060051</v>
@@ -30844,7 +30796,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.890616021702928</v>
+        <v>1.881239761641629</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.317265908055306</v>
@@ -30933,7 +30885,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.888515168224308</v>
+        <v>1.884869349728005</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.53216589158036</v>
@@ -31022,7 +30974,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.881653175882515</v>
+        <v>1.883200259357784</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.459631126433889</v>
@@ -31111,7 +31063,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.886621378444607</v>
+        <v>1.892214633795406</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.432460554813154</v>
@@ -31200,7 +31152,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.910613769126043</v>
+        <v>1.914140779729729</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.138716011305557</v>
